--- a/master/website/static/datatemplates/productcostpayment.xlsx
+++ b/master/website/static/datatemplates/productcostpayment.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -495,83 +495,113 @@
       <c r="O1" t="inlineStr">
         <is>
           <t>int(255)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>varchar(8)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>varchar(50)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>varchar(50)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>(id)입력x</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>factory_id</t>
+          <t>공장코드</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>wanitem_id</t>
+          <t>bom코드</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>basisicstoc_amt</t>
+          <t>기초재고수량</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>basisicstoc_price</t>
+          <t>기초재고금액</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>productionreceipt_amt</t>
+          <t>생산입고수량</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>productionreceipt_price</t>
+          <t>생산입고금액</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sell_amt</t>
+          <t>판매출고수량</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sell_cost</t>
+          <t>판매출고금액</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>loss_amt</t>
+          <t>LOSS출고수량</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>loss_cost</t>
+          <t>LOSS출고금액</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>development_amt</t>
+          <t>개발출고수량</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>development_cost</t>
+          <t>개발출고금액</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>endingstock_amt</t>
+          <t>기말재고수량</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>endingstock_cost</t>
+          <t>기말재고금액</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>년월</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>버젼코드</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>계정코드</t>
         </is>
       </c>
     </row>

--- a/master/website/static/datatemplates/productcostpayment.xlsx
+++ b/master/website/static/datatemplates/productcostpayment.xlsx
@@ -439,12 +439,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>int(255)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>int(255)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -499,24 +499,24 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>varchar(8)</t>
+          <t>int(255)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>varchar(50)</t>
+          <t>int(255)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>varchar(50)</t>
+          <t>varchar(6)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(id)입력x</t>
+          <t>ID (입력x)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,82 +526,82 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bom코드</t>
+          <t>버젼코드</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>계정코드</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>완제품코드</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>기초재고수량</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>기초재고금액</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>생산입고수량</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>생산입고금액</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>판매출고수량</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>판매출고금액</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>LOSS출고수량</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>LOSS출고금액</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>개발출고수량</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>개발출고금액</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>기말재고수량</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>기말재고금액</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>년월</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>버젼코드</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>계정코드</t>
+          <t>년월 ex) 200001</t>
         </is>
       </c>
     </row>
